--- a/Dicionario_dos_dados.xlsx
+++ b/Dicionario_dos_dados.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msart\Documentos\programacao\Bdgeo\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66A61EAC-C35A-4CAB-8C75-CAB14F1C75E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6734D1DB-ECB3-49F0-8ADE-8D97D14CA4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="2295" windowWidth="25965" windowHeight="13380" xr2:uid="{D3F488D8-3790-4419-9F10-DC6BA02B4E0F}"/>
+    <workbookView xWindow="2835" yWindow="2100" windowWidth="25965" windowHeight="13380" xr2:uid="{D3F488D8-3790-4419-9F10-DC6BA02B4E0F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dados do clima" sheetId="1" r:id="rId1"/>
+    <sheet name="Dados das estacoes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="88">
   <si>
     <t>NOME DA VARIÁVEL</t>
   </si>
@@ -240,6 +241,66 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>LATITUDE</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t>Latitude da estação em graus</t>
+  </si>
+  <si>
+    <t>Longitude da estação em graus</t>
+  </si>
+  <si>
+    <t>Ibirite</t>
+  </si>
+  <si>
+    <t>Florestal</t>
+  </si>
+  <si>
+    <t>Sete Lagoas</t>
+  </si>
+  <si>
+    <t>Divinopolis</t>
+  </si>
+  <si>
+    <t>Ouro Branco</t>
+  </si>
+  <si>
+    <t>Timoteo</t>
+  </si>
+  <si>
+    <t>Oliveira</t>
+  </si>
+  <si>
+    <t>Manhuacu</t>
+  </si>
+  <si>
+    <t>Barbacena</t>
+  </si>
+  <si>
+    <t>Sao Joao Del Rei</t>
+  </si>
+  <si>
+    <t>Dores do Indaia</t>
+  </si>
+  <si>
+    <t>Curvelo</t>
+  </si>
+  <si>
+    <t>Guanhaes</t>
+  </si>
+  <si>
+    <t>BELO HORIZONTE (PAMPULHA)</t>
+  </si>
+  <si>
+    <t>IBIRITE (ROLA MOCA)</t>
+  </si>
+  <si>
+    <t>BELO HORIZONTE - CERCADINHO</t>
   </si>
 </sst>
 </file>
@@ -331,19 +392,22 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -353,9 +417,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -678,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450FCEE7-A9EA-441C-9DC3-DCE0B1AFD0A2}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,624 +751,627 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="9" t="s">
+    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3"/>
+      <c r="D6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="9" t="s">
+      <c r="D7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3"/>
+      <c r="D8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3"/>
+      <c r="D9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="3"/>
+      <c r="D10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3"/>
+      <c r="D11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="3"/>
+      <c r="D12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="3"/>
+      <c r="D13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="3"/>
+      <c r="D14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="3"/>
+      <c r="D15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="3"/>
+      <c r="D16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="3"/>
+      <c r="D17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="3"/>
+      <c r="D18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="9" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="3"/>
+      <c r="D19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="5">
         <v>3106200</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="9">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="5">
         <v>3126000</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="3"/>
+      <c r="D21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="9">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="5">
         <v>3129806</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="3"/>
+      <c r="D22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="9">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="5">
         <v>3167202</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="3"/>
+      <c r="D23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="9">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="5">
         <v>3122306</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="3"/>
+      <c r="D24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="9">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="5">
         <v>3145901</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="3"/>
+      <c r="D25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="9">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="5">
         <v>3168705</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="3"/>
+      <c r="D26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="9">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="5">
         <v>3145604</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="3"/>
+      <c r="D27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="9">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="5">
         <v>3139409</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="3"/>
+      <c r="D28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="9">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="5">
         <v>3105608</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="3"/>
+      <c r="D29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="9">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="5">
         <v>3162500</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="3"/>
+      <c r="D30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="9">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="5">
         <v>3123205</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="3"/>
+      <c r="D31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="9">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="5">
         <v>3120904</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="3"/>
+      <c r="D32" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="9">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="5">
         <v>3128006</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="3"/>
+      <c r="D33" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10" t="s">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10" t="s">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10" t="s">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10" t="s">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10" t="s">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10" t="s">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10" t="s">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10" t="s">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10" t="s">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10" t="s">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10" t="s">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="10" t="s">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10" t="s">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="3" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:A33"/>
+    <mergeCell ref="B20:B33"/>
+    <mergeCell ref="E20:E33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
@@ -1315,9 +1379,419 @@
     <mergeCell ref="A5:A19"/>
     <mergeCell ref="B5:B19"/>
     <mergeCell ref="E5:E19"/>
-    <mergeCell ref="A20:A33"/>
-    <mergeCell ref="B20:B33"/>
-    <mergeCell ref="E20:E33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28E3840-36FB-4225-B0A6-CD12F9988796}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D3:D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3106200</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="5">
+        <v>3126000</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="5">
+        <v>3129806</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="5">
+        <v>3167202</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="5">
+        <v>3122306</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="5">
+        <v>3145901</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="5">
+        <v>3168705</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="5">
+        <v>3145604</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="5">
+        <v>3139409</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="5">
+        <v>3105608</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="5">
+        <v>3162500</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="5">
+        <v>3123205</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="5">
+        <v>3120904</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="5">
+        <v>3128006</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A18:A31"/>
+    <mergeCell ref="B18:B31"/>
+    <mergeCell ref="E18:E31"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A17"/>
+    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="E3:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
